--- a/survey_original.xlsx
+++ b/survey_original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmoh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmoh\Downloads\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CF3E8-0D60-4A3B-897A-52C63C763E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F41342F-4A3D-4E26-9AF7-59571D8F0526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="753">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2215,9 +2215,6 @@
     <t>observability_rate</t>
   </si>
   <si>
-    <t>Problem_discover_manually(LOGS,PHONECALL)_automatically(SMS_EMAIL_APP_NOTIFICATION_SOUND_ALARM)</t>
-  </si>
-  <si>
     <t>Incident_first_check_metrics</t>
   </si>
   <si>
@@ -2276,6 +2273,12 @@
   </si>
   <si>
     <t>survey_useful</t>
+  </si>
+  <si>
+    <t>Problem_discover</t>
+  </si>
+  <si>
+    <t>No alert system</t>
   </si>
 </sst>
 </file>
@@ -2747,9 +2750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:BC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ129" sqref="AJ129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2764,10 +2767,16 @@
     <col min="13" max="13" width="43.21875" customWidth="1"/>
     <col min="14" max="14" width="39.44140625" customWidth="1"/>
     <col min="15" max="17" width="21.5546875" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="20" width="21.5546875" customWidth="1"/>
-    <col min="21" max="21" width="36.109375" customWidth="1"/>
-    <col min="22" max="39" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="34.44140625" customWidth="1"/>
+    <col min="19" max="19" width="50.21875" customWidth="1"/>
+    <col min="20" max="20" width="33.109375" customWidth="1"/>
+    <col min="21" max="21" width="49.5546875" customWidth="1"/>
+    <col min="22" max="34" width="21.5546875" customWidth="1"/>
+    <col min="35" max="35" width="36.5546875" customWidth="1"/>
+    <col min="36" max="36" width="21.5546875" customWidth="1"/>
+    <col min="37" max="37" width="34.77734375" customWidth="1"/>
+    <col min="38" max="38" width="34" customWidth="1"/>
+    <col min="39" max="39" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,70 +2832,70 @@
         <v>730</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="AK1" s="5">
         <v>33</v>
       </c>
       <c r="AL1" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,10 +4510,10 @@
         <v>80</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH15" s="1" t="s">
         <v>211</v>
@@ -5429,7 +5438,7 @@
         <v>59</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>238</v>
@@ -5630,6 +5639,9 @@
       <c r="T25" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="U25" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="V25" s="1" t="s">
         <v>164</v>
       </c>
@@ -5740,6 +5752,9 @@
       <c r="T26" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="U26" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="W26" s="1" t="s">
         <v>3</v>
       </c>
@@ -6436,6 +6451,9 @@
       <c r="T32" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="U32" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="W32" s="1" t="s">
         <v>19</v>
       </c>
@@ -6809,7 +6827,7 @@
         <v>80</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>218</v>
@@ -7055,6 +7073,15 @@
       <c r="AI37" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="AK37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:39" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -7142,7 +7169,7 @@
         <v>24</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>218</v>
@@ -7215,6 +7242,9 @@
       <c r="P39" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="Q39" s="3">
+        <v>3</v>
+      </c>
       <c r="R39" s="1" t="s">
         <v>341</v>
       </c>
@@ -7356,7 +7386,7 @@
         <v>24</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>218</v>
@@ -8406,10 +8436,10 @@
         <v>25</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH49" s="1" t="s">
         <v>30</v>
@@ -8513,10 +8543,10 @@
         <v>59</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>142</v>
@@ -8742,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>142</v>
@@ -8827,9 +8857,7 @@
       <c r="V53" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="W53" s="1"/>
       <c r="X53" s="1" t="s">
         <v>128</v>
       </c>
@@ -9780,10 +9808,10 @@
         <v>59</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH61" s="1" t="s">
         <v>82</v>
@@ -10934,7 +10962,7 @@
         <v>27</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AG71" s="1" t="s">
         <v>99</v>
@@ -11260,6 +11288,9 @@
       <c r="U74" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="W74" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="X74" s="1" t="s">
         <v>20</v>
       </c>
@@ -11468,6 +11499,9 @@
       <c r="N76" s="1">
         <v>2</v>
       </c>
+      <c r="O76" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="P76" s="1" t="s">
         <v>122</v>
       </c>
@@ -11477,6 +11511,9 @@
       <c r="R76" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="S76" s="3" t="s">
+        <v>453</v>
+      </c>
       <c r="T76" s="1" t="s">
         <v>148</v>
       </c>
@@ -11512,6 +11549,9 @@
       </c>
       <c r="AG76" s="4">
         <v>0</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="AI76" s="1" t="s">
         <v>31</v>
@@ -12039,6 +12079,9 @@
       <c r="O81" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="P81" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="Q81" s="1">
         <v>2</v>
       </c>
@@ -12064,10 +12107,13 @@
         <v>59</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
+      </c>
+      <c r="AK81" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="AL81" s="1" t="s">
         <v>247</v>
@@ -12528,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AG85" s="1" t="s">
         <v>151</v>
@@ -12949,6 +12995,9 @@
       <c r="O89" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="P89" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="Q89" s="1">
         <v>3</v>
       </c>
@@ -13059,6 +13108,9 @@
       <c r="M90" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="N90" s="3">
+        <v>1</v>
+      </c>
       <c r="O90" s="1" t="s">
         <v>161</v>
       </c>
@@ -13456,10 +13508,10 @@
         <v>80</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AG93" s="1" t="s">
         <v>29</v>
@@ -13532,6 +13584,9 @@
       <c r="P94" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="Q94" s="3">
+        <v>4</v>
+      </c>
       <c r="R94" s="1" t="s">
         <v>175</v>
       </c>
@@ -13874,6 +13929,9 @@
       <c r="M97" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="N97" s="3">
+        <v>3</v>
+      </c>
       <c r="O97" s="1" t="s">
         <v>12</v>
       </c>
@@ -14579,6 +14637,9 @@
       <c r="P103" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="Q103" s="3">
+        <v>5</v>
+      </c>
       <c r="R103" s="1" t="s">
         <v>216</v>
       </c>
@@ -17097,16 +17158,19 @@
         <v>80</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH124" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AI124" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="AJ124" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="AK124" s="1" t="s">
         <v>192</v>
@@ -17674,16 +17738,19 @@
         <v>24</v>
       </c>
       <c r="AE129" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AI129" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="AJ129" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="AK129" s="1" t="s">
         <v>143</v>
@@ -17787,10 +17854,10 @@
         <v>59</v>
       </c>
       <c r="AE130" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>218</v>
+        <v>752</v>
       </c>
       <c r="AG130" s="4">
         <v>0</v>
@@ -17981,6 +18048,9 @@
       </c>
       <c r="P132" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>2</v>
       </c>
       <c r="R132" s="1" t="s">
         <v>683</v>
